--- a/data/trans_dic/P1423-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Estudios-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -647,32 +671,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>11,32%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>19,21%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>16,84%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>8,66%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>14,02%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>11,84%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -700,32 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>8,42; 13,14</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>9,6; 13,0</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>17,11; 21,58</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>14,55; 19,28</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 21,61</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>7,6; 9,91</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>12,6; 15,63</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>10,34; 13,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 17,62</t>
         </is>
       </c>
     </row>
@@ -757,32 +811,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,53%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>7,41%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>8,75%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>3,65%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>5,12%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>5,77%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
         </is>
       </c>
     </row>
@@ -810,32 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,29; 5,88</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>4,45; 6,74</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>6,21; 8,75</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>7,52; 10,08</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 11,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>3,08; 4,39</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>4,38; 5,86</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t>5,06; 6,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 8,34</t>
         </is>
       </c>
     </row>
@@ -867,32 +951,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>4,32%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3,83%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>3,15%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>3,46%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>3,28%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>2,53%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -920,32 +1019,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,65; 7,39</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>2,52; 6,37</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>2,12; 6,1</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>1,86; 5,16</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 9,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>2,41; 4,87</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>2,18; 4,68</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="M9" s="2" t="inlineStr">
         <is>
           <t>1,68; 3,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 7,53</t>
         </is>
       </c>
     </row>
@@ -977,32 +1091,47 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,61%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>11,39%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>10,16%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>5,39%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>7,82%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>6,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1159,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,44; 6,63</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>6,57; 8,42</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>10,35; 12,49</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>9,09; 11,26</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 12,44</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>4,78; 5,92</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>7,17; 8,53</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>6,18; 7,44</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 9,4</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1212,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1423-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,85</t>
+          <t>3,97; 6,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,68</t>
+          <t>5,25; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,06</t>
+          <t>3,77; 6,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,14</t>
+          <t>8,19; 13,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,0</t>
+          <t>9,59; 13,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 21,58</t>
+          <t>17,11; 21,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,28</t>
+          <t>14,35; 19,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 21,61</t>
+          <t>17,61; 22,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,91</t>
+          <t>7,57; 9,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 15,63</t>
+          <t>12,56; 15,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 13,53</t>
+          <t>10,29; 13,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 17,62</t>
+          <t>14,28; 17,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,59</t>
+          <t>1,32; 2,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,04</t>
+          <t>2,29; 4,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,74</t>
+          <t>2,21; 3,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,88</t>
+          <t>3,29; 5,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,74</t>
+          <t>4,51; 6,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 8,75</t>
+          <t>6,14; 8,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,08</t>
+          <t>7,54; 10,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,43</t>
+          <t>6,97; 11,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 4,39</t>
+          <t>3,05; 4,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 5,86</t>
+          <t>4,43; 5,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 6,59</t>
+          <t>5,02; 6,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 8,34</t>
+          <t>5,63; 8,26</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,15</t>
+          <t>1,56; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,04</t>
+          <t>1,47; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,7</t>
+          <t>0,9; 3,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,39</t>
+          <t>3,59; 7,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,37</t>
+          <t>2,72; 6,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,1</t>
+          <t>2,3; 6,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,16</t>
+          <t>1,93; 5,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,1</t>
+          <t>5,64; 9,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,87</t>
+          <t>2,53; 4,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,68</t>
+          <t>2,24; 4,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,87</t>
+          <t>1,57; 3,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,53</t>
+          <t>4,95; 7,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,71</t>
+          <t>2,52; 3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,88</t>
+          <t>3,44; 4,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,02</t>
+          <t>2,77; 3,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,63</t>
+          <t>4,5; 6,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,42</t>
+          <t>6,71; 8,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 12,49</t>
+          <t>10,33; 12,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 11,26</t>
+          <t>9,12; 11,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 12,44</t>
+          <t>9,2; 12,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 5,92</t>
+          <t>4,88; 5,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 8,53</t>
+          <t>7,07; 8,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 7,44</t>
+          <t>6,15; 7,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,4</t>
+          <t>7,47; 9,39</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54471</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67241</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39540</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54712</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>148833</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>256925</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>167516</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>147236</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>203303</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>324167</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>207056</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>201949</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40920; 69683</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>51148; 84077</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28432; 52435</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>42188; 69917</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>126173; 171886</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>228900; 287334</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>142720; 192020</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>133076; 166703</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>177623; 230193</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>290469; 358484</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>179946; 237885</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>181381; 227436</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31949</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60401</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>60541</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>108979</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>87724</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>130002</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>173998</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>217897</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>119674</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>190403</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>234539</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>326876</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22404; 44544</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44934; 79281</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45812; 77641</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>75329; 133222</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>71616; 107815</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>107662; 154173</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>149963; 201262</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>155914; 255903</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99978; 141926</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>164747; 221717</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>204148; 266573</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>255035; 373844</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14954</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13280</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10489</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33676</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20565</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17567</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17277</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47404</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35518</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30848</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>27765</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81079</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8606; 23713</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7052; 23861</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4932; 19652</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23228; 49101</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12970; 32138</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10567; 28104</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10614; 30242</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37278; 60948</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25981; 50121</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21021; 45464</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17211; 42284</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>64723; 99886</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>101374</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>140923</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>110570</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>197367</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>257122</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>404495</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>358790</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>412537</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>358496</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>545418</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>469360</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>609904</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>82495; 121211</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>117782; 168339</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93706; 134446</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>155327; 232009</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>226831; 288464</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>366737; 445972</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>322072; 395353</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>336075; 455830</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>324573; 398476</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>492572; 587593</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>424927; 514353</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>530864; 667536</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>